--- a/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/testOutput.xlsx
+++ b/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/testOutput.xlsx
@@ -1263,6 +1263,9 @@
       <c r="R10" t="n">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1321,6 +1324,9 @@
       <c r="R11" t="n">
         <v>1</v>
       </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1379,6 +1385,9 @@
       <c r="R12" t="n">
         <v>3.021375490955006</v>
       </c>
+      <c r="S12" t="n">
+        <v>4.641196107526275</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1437,6 +1446,9 @@
       <c r="R13" t="n">
         <v>1</v>
       </c>
+      <c r="S13" t="n">
+        <v>2.978216895447799</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1495,6 +1507,9 @@
       <c r="R14" t="n">
         <v>0.1</v>
       </c>
+      <c r="S14" t="n">
+        <v>-1.070866799108457e-06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1553,6 +1568,9 @@
       <c r="R15" t="n">
         <v>0.1</v>
       </c>
+      <c r="S15" t="n">
+        <v>-1.070866799108457e-06</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1611,6 +1629,9 @@
       <c r="R16" t="n">
         <v>0.7914841323250363</v>
       </c>
+      <c r="S16" t="n">
+        <v>1.354007388198719</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1669,6 +1690,9 @@
       <c r="R17" t="n">
         <v>1.846988625865942</v>
       </c>
+      <c r="S17" t="n">
+        <v>2.488138500418057</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1727,6 +1751,9 @@
       <c r="R18" t="n">
         <v>3.284569049810194</v>
       </c>
+      <c r="S18" t="n">
+        <v>4.360125204043042</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1869,6 +1896,9 @@
       <c r="R31" t="n">
         <v>102</v>
       </c>
+      <c r="S31" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1877,55 +1907,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.83684054100002</v>
+        <v>13.72654837499999</v>
       </c>
       <c r="C32" t="n">
-        <v>32.19084447</v>
+        <v>32.32895194</v>
       </c>
       <c r="D32" t="n">
-        <v>16.785175705</v>
+        <v>16.94519662900001</v>
       </c>
       <c r="E32" t="n">
-        <v>26.98851338699998</v>
+        <v>26.915427016</v>
       </c>
       <c r="F32" t="n">
-        <v>16.516147464</v>
+        <v>16.12169647799999</v>
       </c>
       <c r="G32" t="n">
-        <v>63.43652585500001</v>
+        <v>59.77828406200001</v>
       </c>
       <c r="H32" t="n">
-        <v>16.26297492000003</v>
+        <v>13.21787197099999</v>
       </c>
       <c r="I32" t="n">
-        <v>28.764789613</v>
+        <v>26.84762463300001</v>
       </c>
       <c r="J32" t="n">
-        <v>17.23323029400001</v>
+        <v>16.69609554800002</v>
       </c>
       <c r="K32" t="n">
-        <v>28.01374652800001</v>
+        <v>28.873552297</v>
       </c>
       <c r="L32" t="n">
-        <v>23.77869651100002</v>
+        <v>24.61528613199999</v>
       </c>
       <c r="M32" t="n">
-        <v>73.25129069000002</v>
+        <v>70.861748111</v>
       </c>
       <c r="N32" t="n">
-        <v>13.84701633300006</v>
+        <v>13.65448766600002</v>
       </c>
       <c r="O32" t="n">
-        <v>34.97182506399997</v>
+        <v>34.76529264699997</v>
       </c>
       <c r="P32" t="n">
-        <v>19.55306878800002</v>
+        <v>18.88788201799997</v>
       </c>
       <c r="Q32" t="n">
-        <v>26.50993396000001</v>
+        <v>25.72435966300003</v>
       </c>
       <c r="R32" t="n">
-        <v>17.39087819800011</v>
+        <v>16.927842951</v>
+      </c>
+      <c r="S32" t="n">
+        <v>51.64329313899998</v>
       </c>
     </row>
     <row r="33">
@@ -1985,6 +2018,9 @@
       <c r="R33" t="n">
         <v>42.86947227914721</v>
       </c>
+      <c r="S33" t="n">
+        <v>7.360955662482409</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,6 +2079,9 @@
       <c r="R34" t="n">
         <v>5</v>
       </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2101,6 +2140,9 @@
       <c r="R35" t="n">
         <v>8.573894455829443</v>
       </c>
+      <c r="S35" t="n">
+        <v>2.453651887494136</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2166,6 +2208,9 @@
       <c r="R37" t="n">
         <v>505</v>
       </c>
+      <c r="S37" t="n">
+        <v>505</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2224,6 +2269,9 @@
       <c r="R38" t="n">
         <v>247</v>
       </c>
+      <c r="S38" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2282,6 +2330,9 @@
       <c r="R39" t="n">
         <v>258</v>
       </c>
+      <c r="S39" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2340,6 +2391,9 @@
       <c r="R40" t="n">
         <v>0.7364341085271318</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7364341085271318</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2398,6 +2452,9 @@
       <c r="R41" t="n">
         <v>0.0310391363022942</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.0310391363022942</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2456,6 +2513,9 @@
       <c r="R42" t="n">
         <v>2.490169574385275</v>
       </c>
+      <c r="S42" t="n">
+        <v>2.490169574385275</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2512,6 +2572,9 @@
         <v>0.01761846232865465</v>
       </c>
       <c r="R43" t="n">
+        <v>0.01761846232865465</v>
+      </c>
+      <c r="S43" t="n">
         <v>0.01761846232865465</v>
       </c>
     </row>

--- a/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/testOutput.xlsx
+++ b/data/published/2020_Colloff_Flowe_SealeCarlisle_etal/testOutput.xlsx
@@ -446,17 +446,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="18.83203125" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="35" bestFit="1" customWidth="1" style="2" min="2" max="19"/>
-    <col width="10.83203125" customWidth="1" style="2" min="20" max="16384"/>
+    <col width="35" bestFit="1" customWidth="1" style="2" min="2" max="31"/>
+    <col width="10.83203125" customWidth="1" style="2" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -555,6 +555,66 @@
           <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment1()</t>
         </is>
       </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="AC1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
+      <c r="AE1" s="3" t="inlineStr">
+        <is>
+          <t>published_Colloff_Flowe_SealeCarlisle_2020_Experiment2()</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -652,6 +712,66 @@
           <t>Integration</t>
         </is>
       </c>
+      <c r="T2" s="4" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="V2" s="4" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="Y2" s="4" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AA2" s="4" t="inlineStr">
+        <is>
+          <t>IndependentObservation</t>
+        </is>
+      </c>
+      <c r="AB2" s="4" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AC2" s="4" t="inlineStr">
+        <is>
+          <t>Ensemble</t>
+        </is>
+      </c>
+      <c r="AD2" s="4" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="AE2" s="4" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -749,6 +869,66 @@
           <t>UnequalVariance</t>
         </is>
       </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="Y3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AA3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AB3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AC3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
+      <c r="AD3" s="4" t="inlineStr">
+        <is>
+          <t>EqualVariance</t>
+        </is>
+      </c>
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>UnequalVariance</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -846,6 +1026,66 @@
           <t>{}</t>
         </is>
       </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Y4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AB4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AD4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="AE4" s="4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -943,6 +1183,66 @@
           <t>condition 3</t>
         </is>
       </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 1</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 1</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 1</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 1</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 1</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 1</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 2</t>
+        </is>
+      </c>
+      <c r="AA5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 2</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 2</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 2</t>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 2</t>
+        </is>
+      </c>
+      <c r="AE5" s="4" t="inlineStr">
+        <is>
+          <t>encodingConditionRaw 2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1040,6 +1340,66 @@
           <t>[-1,60,80,100]</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>[-1,60,80,100]</t>
+        </is>
+      </c>
     </row>
     <row r="7" customFormat="1" s="5">
       <c r="A7" s="5" t="inlineStr">
@@ -1137,6 +1497,66 @@
           <t>True</t>
         </is>
       </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AB7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AC7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AD7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AE7" s="5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1198,6 +1618,42 @@
       <c r="S8" s="4" t="n">
         <v>2000</v>
       </c>
+      <c r="T8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1266,6 +1722,42 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1327,6 +1819,42 @@
       <c r="S11" t="n">
         <v>1</v>
       </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1388,6 +1916,42 @@
       <c r="S12" t="n">
         <v>4.641196107526275</v>
       </c>
+      <c r="T12" t="n">
+        <v>2.144890301870147</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.131807028710289</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.244695537045953</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.206716400161445</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.320839136706579</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.230845867900177</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.817714721252564</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.821241986507835</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.069358822603493</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.041679308132792</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.403843213471901</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.850232685091798</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1449,6 +2013,42 @@
       <c r="S13" t="n">
         <v>2.978216895447799</v>
       </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9656404952878361</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.8928311537342123</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.233517943654848</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9881074492589208</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.8030873530677172</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.913681936178128</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1510,6 +2110,42 @@
       <c r="S14" t="n">
         <v>-1.070866799108457e-06</v>
       </c>
+      <c r="T14" t="n">
+        <v>6.774409076199488e-05</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4.065010592876762e-05</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1280675837036356</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.09149799179669e-05</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.5616717820042401</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5535731639859263</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1175737088377397</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.1290330335226496</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1571,6 +2207,42 @@
       <c r="S15" t="n">
         <v>-1.070866799108457e-06</v>
       </c>
+      <c r="T15" t="n">
+        <v>6.774409076199488e-05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.065010592876762e-05</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.1280675837036356</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.09149799179669e-05</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.5616717820042401</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5535731639859263</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1175737088377397</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1290330335226496</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1632,6 +2304,42 @@
       <c r="S16" t="n">
         <v>1.354007388198719</v>
       </c>
+      <c r="T16" t="n">
+        <v>1.298252459810874</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.301219357786254</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.182676874791263</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.18531595597618</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.3110556141032024</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.127112781838484</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.208031390098658</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.215866833657531</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.300901461765801</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.304915420770874</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.4486458983230738</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.50980505222553</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1693,6 +2401,42 @@
       <c r="S17" t="n">
         <v>2.488138500418057</v>
       </c>
+      <c r="T17" t="n">
+        <v>1.683524542806411</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.684137003800086</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.484534643982227</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.483426021102464</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.158264565068983</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.386225320612239</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.637908715352673</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.643012558556985</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.606923627687848</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.595457405515935</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.763959027617127</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.961570689016727</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1754,6 +2498,42 @@
       <c r="S18" t="n">
         <v>4.360125204043042</v>
       </c>
+      <c r="T18" t="n">
+        <v>2.334789605002178</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.323821411567328</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.027168076163154</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.001428556354367</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.005324184220425</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.709502454617863</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.28116647517095</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.28108483975871</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.130150580103514</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.072221585048579</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.578875913096833</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.093019049778981</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1899,6 +2679,42 @@
       <c r="S31" t="n">
         <v>314</v>
       </c>
+      <c r="T31" t="n">
+        <v>201</v>
+      </c>
+      <c r="U31" t="n">
+        <v>308</v>
+      </c>
+      <c r="V31" t="n">
+        <v>81</v>
+      </c>
+      <c r="W31" t="n">
+        <v>148</v>
+      </c>
+      <c r="X31" t="n">
+        <v>132</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>314</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>233</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>425</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>159</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1907,58 +2723,94 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.72654837499999</v>
+        <v>13.61754882200012</v>
       </c>
       <c r="C32" t="n">
-        <v>32.32895194</v>
+        <v>32.61633309699982</v>
       </c>
       <c r="D32" t="n">
-        <v>16.94519662900001</v>
+        <v>17.51606276599978</v>
       </c>
       <c r="E32" t="n">
-        <v>26.915427016</v>
+        <v>28.03877885100019</v>
       </c>
       <c r="F32" t="n">
-        <v>16.12169647799999</v>
+        <v>17.06533567499991</v>
       </c>
       <c r="G32" t="n">
-        <v>59.77828406200001</v>
+        <v>62.43053477600006</v>
       </c>
       <c r="H32" t="n">
-        <v>13.21787197099999</v>
+        <v>13.18990462199963</v>
       </c>
       <c r="I32" t="n">
-        <v>26.84762463300001</v>
+        <v>27.12775908499998</v>
       </c>
       <c r="J32" t="n">
-        <v>16.69609554800002</v>
+        <v>17.1265590349999</v>
       </c>
       <c r="K32" t="n">
-        <v>28.873552297</v>
+        <v>28.64052274100004</v>
       </c>
       <c r="L32" t="n">
-        <v>24.61528613199999</v>
+        <v>24.3993999749996</v>
       </c>
       <c r="M32" t="n">
-        <v>70.861748111</v>
+        <v>74.61782949000008</v>
       </c>
       <c r="N32" t="n">
-        <v>13.65448766600002</v>
+        <v>14.17876764399989</v>
       </c>
       <c r="O32" t="n">
-        <v>34.76529264699997</v>
+        <v>35.78937489200007</v>
       </c>
       <c r="P32" t="n">
-        <v>18.88788201799997</v>
+        <v>19.98055444200008</v>
       </c>
       <c r="Q32" t="n">
-        <v>25.72435966300003</v>
+        <v>28.00796001200024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.927842951</v>
+        <v>18.9118712290001</v>
       </c>
       <c r="S32" t="n">
-        <v>51.64329313899998</v>
+        <v>56.46276030299987</v>
+      </c>
+      <c r="T32" t="n">
+        <v>29.47137161699993</v>
+      </c>
+      <c r="U32" t="n">
+        <v>43.43722924400026</v>
+      </c>
+      <c r="V32" t="n">
+        <v>22.7226655139998</v>
+      </c>
+      <c r="W32" t="n">
+        <v>36.97669009099991</v>
+      </c>
+      <c r="X32" t="n">
+        <v>35.40220783199993</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>89.8169614010003</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>18.06501474200013</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>36.54623508799978</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>25.6534680599998</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>37.28320654699974</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>33.72669665000012</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>53.51415170199971</v>
       </c>
     </row>
     <row r="33">
@@ -2021,6 +2873,42 @@
       <c r="S33" t="n">
         <v>7.360955662482409</v>
       </c>
+      <c r="T33" t="n">
+        <v>11.69940563156837</v>
+      </c>
+      <c r="U33" t="n">
+        <v>11.57456176289618</v>
+      </c>
+      <c r="V33" t="n">
+        <v>34.58770849293629</v>
+      </c>
+      <c r="W33" t="n">
+        <v>33.9269018495115</v>
+      </c>
+      <c r="X33" t="n">
+        <v>82.32410836285321</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>31.56630055597374</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.87566513303772</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.866231397681258</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>5.074555701715198</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.53694029740462</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>17.85724113134693</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>4.076135517356895</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2082,6 +2970,42 @@
       <c r="S34" t="n">
         <v>3</v>
       </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2143,6 +3067,42 @@
       <c r="S35" t="n">
         <v>2.453651887494136</v>
       </c>
+      <c r="T35" t="n">
+        <v>2.924851407892093</v>
+      </c>
+      <c r="U35" t="n">
+        <v>3.858187254298726</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6.917541698587259</v>
+      </c>
+      <c r="W35" t="n">
+        <v>11.3089672831705</v>
+      </c>
+      <c r="X35" t="n">
+        <v>16.46482167257064</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.52210018532458</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.71891628325943</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.9554104658937527</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.01491114034304</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.84564676580154</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.571448226269386</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.358711839118965</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2211,6 +3171,42 @@
       <c r="S37" t="n">
         <v>505</v>
       </c>
+      <c r="T37" t="n">
+        <v>725</v>
+      </c>
+      <c r="U37" t="n">
+        <v>725</v>
+      </c>
+      <c r="V37" t="n">
+        <v>725</v>
+      </c>
+      <c r="W37" t="n">
+        <v>725</v>
+      </c>
+      <c r="X37" t="n">
+        <v>725</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>725</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>705</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2272,6 +3268,42 @@
       <c r="S38" t="n">
         <v>247</v>
       </c>
+      <c r="T38" t="n">
+        <v>373</v>
+      </c>
+      <c r="U38" t="n">
+        <v>373</v>
+      </c>
+      <c r="V38" t="n">
+        <v>373</v>
+      </c>
+      <c r="W38" t="n">
+        <v>373</v>
+      </c>
+      <c r="X38" t="n">
+        <v>373</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>373</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2333,6 +3365,42 @@
       <c r="S39" t="n">
         <v>258</v>
       </c>
+      <c r="T39" t="n">
+        <v>352</v>
+      </c>
+      <c r="U39" t="n">
+        <v>352</v>
+      </c>
+      <c r="V39" t="n">
+        <v>352</v>
+      </c>
+      <c r="W39" t="n">
+        <v>352</v>
+      </c>
+      <c r="X39" t="n">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>352</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>355</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2394,6 +3462,42 @@
       <c r="S40" t="n">
         <v>0.7364341085271318</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7357954545454546</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.6676056338028169</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2455,6 +3559,42 @@
       <c r="S41" t="n">
         <v>0.0310391363022942</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.07193923145665773</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.0680952380952381</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2516,6 +3656,42 @@
       <c r="S42" t="n">
         <v>2.490169574385275</v>
       </c>
+      <c r="T42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.125201932239447</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1.919513171615401</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.919513171615401</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2576,6 +3752,42 @@
       </c>
       <c r="S43" t="n">
         <v>0.01761846232865465</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.04256424439870292</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.03294822228578443</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.03294822228578443</v>
       </c>
     </row>
   </sheetData>
